--- a/SW SLR Comparison.xlsx
+++ b/SW SLR Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\4th Project\Diabetes_Analytics-Engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10587493-BBA6-4576-8861-2D70A8460235}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5300B0A-AF58-4B21-BD25-6854D3F27D5A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15060" windowHeight="6624" xr2:uid="{36A1A3F5-6E83-4664-B6B9-3AAB83458210}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Window Size</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Weights Applied</t>
+  </si>
+  <si>
+    <t>Window</t>
   </si>
 </sst>
 </file>
@@ -602,6 +605,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>EDST for different Windows Size </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1094,6 +1122,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Window</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1159,6 +1247,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>EDST Magnitude</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2177,7 +2320,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2189,7 +2332,9 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
